--- a/Localização.xlsx
+++ b/Localização.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUAN\Documents\Projeto organizar Palusa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUAN\Documents\Porjoteo_Portifolio\Lista_items_Palusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B45987-D61E-4999-A556-C5FCB12A44F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A3E2D7-F091-4700-AC3B-7D93590B64AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="94">
   <si>
     <t>Descrição</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>H4</t>
+  </si>
+  <si>
+    <t>EVAPORADOR aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -470,6 +473,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,14 +756,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" style="8" customWidth="1"/>
@@ -2215,7 +2219,7 @@
         <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>91</v>
@@ -2229,6 +2233,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
+      <c r="B87" s="11"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>

--- a/Localização.xlsx
+++ b/Localização.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUAN\Documents\Porjoteo_Portifolio\Lista_items_Palusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A3E2D7-F091-4700-AC3B-7D93590B64AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2551BEFB-ABEC-4A85-8C57-841D564A9A62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="140">
   <si>
     <t>Descrição</t>
   </si>
@@ -306,14 +306,467 @@
     <t>H4</t>
   </si>
   <si>
-    <t>EVAPORADOR aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-IP972</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>BRUCUTU PARA-BRISA VOLVO FH/NH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-LD1264</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LANTERNA TRAS.SCANIA SERIE 4 PGR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-LD1352</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LANTERNA TAPA SOL IVECO STRALIS 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-LD1379</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LANTERNA TRAS.MARMITAO CONSTELLAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-LD1412</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LANTERNA DIANT.CARGO S/SOQUETE SE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-LD1482</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LENTE LANTERNA TRAS.SCANIA SERIE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-LE1263</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-LE1361</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LANTERNA DIANT.IVECO STRALIS/TECT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-LE1363</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LANTERNA DIANT.IVECO STRALIS HI-W</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-LE1378</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-LE1481</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-LE15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LENTE LANTERNA TRAS.113/143 S/VIG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-LS1221</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LENTE LANTERNA TETO EXTERNO VOLVO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-LS1271</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LANTERNA DIANT.VOLVO FH12 04.. CH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-LS1272</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-LT1124FUME</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LANTERNA TAPA SOL SCANIA SERIE 4/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-LT1133</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-LT1193.LD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LANTERNA TRAS.VOLVO FH CHINESINHO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-LT1195</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LANTERNA TRAS.VOLVO/VM/FH/FM LED</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-LT1196</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-PD1231LD/LE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LANTERNA DIANT.VOLVO FH 98-04 LD/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-PD1242</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LANTERNA DIANT.SCANIA SERIE 4/R11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-PD1242F</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-PE1241</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-PU1471</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LANTERNA DIANT.SCANIA SERIE 5/SER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-PU1472</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GR-TP1091</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>TRILHO MAQUINA PORTA SCANIA 124</t>
+    </r>
+  </si>
+  <si>
+    <t>GAUER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVAPORADOR </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +797,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -442,8 +906,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -473,10 +938,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{6A6B146B-86BA-4B08-B29F-81CA80181011}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -756,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,7 +1290,7 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -2218,144 +2684,467 @@
       <c r="A86" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="9">
+        <v>1</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D86" s="9">
-        <v>1</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="11"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D87" s="7">
+        <v>23</v>
+      </c>
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D88" s="7">
+        <v>5</v>
+      </c>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D89" s="7">
+        <v>2</v>
+      </c>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D90" s="7">
+        <v>1</v>
+      </c>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D91" s="7">
+        <v>10</v>
+      </c>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D92" s="7">
+        <v>2</v>
+      </c>
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93" s="7">
+        <v>1</v>
+      </c>
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D94" s="7">
+        <v>5</v>
+      </c>
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D95" s="7">
+        <v>4</v>
+      </c>
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D96" s="7">
+        <v>17</v>
+      </c>
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D97" s="7">
+        <v>3</v>
+      </c>
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D98" s="7">
+        <v>3</v>
+      </c>
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D99" s="7">
+        <v>1</v>
+      </c>
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D100" s="7">
+        <v>9</v>
+      </c>
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D101" s="7">
+        <v>5</v>
+      </c>
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D102" s="7">
+        <v>18</v>
+      </c>
+      <c r="E102" s="7"/>
+    </row>
+    <row r="103" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D103" s="7">
+        <v>4</v>
+      </c>
+      <c r="E103" s="7"/>
+    </row>
+    <row r="104" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D104" s="7">
+        <v>8</v>
+      </c>
+      <c r="E104" s="7"/>
+    </row>
+    <row r="105" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D105" s="7">
+        <v>9</v>
+      </c>
+      <c r="E105" s="7"/>
+    </row>
+    <row r="106" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D106" s="7">
+        <v>8</v>
+      </c>
+      <c r="E106" s="7"/>
+    </row>
+    <row r="107" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D107" s="7">
+        <v>3</v>
+      </c>
+      <c r="E107" s="7"/>
+    </row>
+    <row r="108" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D108" s="7">
+        <v>16</v>
+      </c>
+      <c r="E108" s="7"/>
+    </row>
+    <row r="109" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D109" s="7">
+        <v>24</v>
+      </c>
+      <c r="E109" s="7"/>
+    </row>
+    <row r="110" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D110" s="7">
+        <v>12</v>
+      </c>
+      <c r="E110" s="7"/>
+    </row>
+    <row r="111" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D111" s="7">
+        <v>3</v>
+      </c>
+      <c r="E111" s="7"/>
+    </row>
+    <row r="112" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D112" s="7">
+        <v>1</v>
+      </c>
+      <c r="E112" s="7"/>
+    </row>
+    <row r="113" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D113" s="7">
+        <v>10</v>
+      </c>
+      <c r="E113" s="7"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
